--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_4_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_4_sawtooth_0.5_.xlsx
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003452689926878305</v>
+        <v>0.0002422121778209441</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001609091298247314</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0.003059608378842459</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7142584581539119</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.532588625273839</v>
+        <v>4.791519168471507</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.569554742660178, 7.495622507887499]</t>
+          <t>[1.6599565034869075, 7.923081833456107]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.002796518100099288</v>
+        <v>0.002790137072895771</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002796518100099288</v>
+        <v>0.002790137072895771</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.182421259008771</v>
+        <v>-0.729579074707539</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8491055858966963, -0.5157369321208467]</t>
+          <t>[-1.3333686537758478, -0.12578949563923025]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0005408372202531098</v>
+        <v>0.01798819731824608</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00108167444050622</v>
+        <v>0.03597639463649216</v>
       </c>
       <c r="S2" t="n">
-        <v>14.3738160351002</v>
+        <v>14.31080508464335</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.812120896103153, 15.935511174097243]</t>
+          <t>[12.682596210489125, 15.93901395879758]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.273753753753777</v>
+        <v>2.693893893893915</v>
       </c>
       <c r="X2" t="n">
-        <v>1.864084084084093</v>
+        <v>0.4644644644644664</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.683423423423461</v>
+        <v>4.923323323323363</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.408827876613898e-06</v>
+        <v>0.0004875996742267352</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001643284636684053</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.007194025746735444</v>
-      </c>
+        <v>0.003059608378842459</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.034543063274119</v>
+        <v>4.17044212836067</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.7803350544139462, 7.288751072134293]</t>
+          <t>[1.6853379721923272, 6.655546284529013]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.40619731561209e-05</v>
+        <v>0.001048225912857692</v>
       </c>
       <c r="N3" t="n">
-        <v>2.81239463122418e-05</v>
+        <v>0.002096451825715384</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006289474781961069</v>
+        <v>-0.1509473947670772</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.5408948312486928, 0.5534737808126149]</t>
+          <t>[-0.8679475199106932, 0.5660527303765388]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.9819902520043164</v>
+        <v>0.6792990666695284</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9819902520043164</v>
+        <v>0.6792990666695284</v>
       </c>
       <c r="S3" t="n">
-        <v>12.63358325777652</v>
+        <v>12.88830651642785</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.220111643079605, 14.047054872473439]</t>
+          <t>[11.414893121910922, 14.361719910944785]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>23.32662662662684</v>
+        <v>0.5595195195195259</v>
       </c>
       <c r="X3" t="n">
-        <v>21.29314314314334</v>
+        <v>-2.098198198198213</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.36011011011034</v>
+        <v>3.217237237237265</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_4_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_4_sawtooth_0.5_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002422121778209441</v>
+        <v>7.700721367731589e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003059608378842459</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.7142584581539119</v>
-      </c>
+        <v>0.001308398784507677</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.791519168471507</v>
+        <v>4.756316084879169</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.6599565034869075, 7.923081833456107]</t>
+          <t>[1.8163692424610112, 7.696262927297326]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.002790137072895771</v>
+        <v>0.001580358844986085</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002790137072895771</v>
+        <v>0.001580358844986085</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.729579074707539</v>
+        <v>-0.9308422677303092</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.3333686537758478, -0.12578949563923025]</t>
+          <t>[-1.522052897234695, -0.33963163822592346]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.01798819731824608</v>
+        <v>0.002099549321117999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03597639463649216</v>
+        <v>0.004199098642235999</v>
       </c>
       <c r="S2" t="n">
-        <v>14.31080508464335</v>
+        <v>13.44197680921924</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.682596210489125, 15.93901395879758]</t>
+          <t>[11.927926877557482, 14.95602674088099]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.693893893893915</v>
+        <v>3.442962962962991</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4644644644644664</v>
+        <v>1.256216216216225</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.923323323323363</v>
+        <v>5.629709709709757</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004875996742267352</v>
+        <v>0.0001900697003563989</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003059608378842459</v>
+        <v>0.001308398784507677</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.17044212836067</v>
+        <v>4.234711541668109</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.6853379721923272, 6.655546284529013]</t>
+          <t>[1.6825981792824685, 6.78682490405375]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001048225912857692</v>
+        <v>0.001191998138335704</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002096451825715384</v>
+        <v>0.001580358844986085</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1509473947670772</v>
+        <v>0.2956053147521933</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.8679475199106932, 0.5660527303765388]</t>
+          <t>[-0.3710790121357297, 0.9622896416401163]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.6792990666695284</v>
+        <v>0.3840552394485195</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6792990666695284</v>
+        <v>0.3840552394485195</v>
       </c>
       <c r="S3" t="n">
-        <v>12.88830651642785</v>
+        <v>13.21802020341457</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.414893121910922, 14.361719910944785]</t>
+          <t>[11.80928518905861, 14.626755217770533]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5595195195195259</v>
+        <v>22.30862862862883</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.098198198198213</v>
+        <v>19.82468468468487</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.217237237237265</v>
+        <v>24.7925725725728</v>
       </c>
     </row>
   </sheetData>
